--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Main minor\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth korawala\Desktop\Minor Project File #ML #Python #Personality Detection\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
   <si>
     <t>Feel comfortable around people</t>
   </si>
@@ -198,30 +198,18 @@
     <t>not givem</t>
   </si>
   <si>
-    <t> Do not like poetry.</t>
-  </si>
-  <si>
     <t>Do you mind being center of attention</t>
   </si>
   <si>
     <t>Are you the life of the party?(Party animal)</t>
   </si>
   <si>
-    <t>Are you quite around strangers</t>
-  </si>
-  <si>
     <t>Do you wait for others to lead the way</t>
   </si>
   <si>
     <t>Do you think you sympathise with others easily?</t>
   </si>
   <si>
-    <t>Do you take out some of your time for others</t>
-  </si>
-  <si>
-    <t>You feel others emotions?</t>
-  </si>
-  <si>
     <t>Can you make others feel at ease</t>
   </si>
   <si>
@@ -231,30 +219,18 @@
     <t>Do you insult others?</t>
   </si>
   <si>
-    <t>Are you hard to get to know</t>
-  </si>
-  <si>
     <t>Do you feel little concern for others.</t>
   </si>
   <si>
-    <t>Do you follow a regular schedule</t>
-  </si>
-  <si>
     <t>Are you always prepared ?</t>
   </si>
   <si>
     <t>Are you exacting in your work?</t>
   </si>
   <si>
-    <t>Do you pay attention to details</t>
-  </si>
-  <si>
     <t>Do you neglect your duties?</t>
   </si>
   <si>
-    <t>Do things in half-way manner</t>
-  </si>
-  <si>
     <t>Do you enjoy wild flights of fantasy?</t>
   </si>
   <si>
@@ -270,9 +246,6 @@
     <t>Do you rarely lose your composure?</t>
   </si>
   <si>
-    <t>Do you feel comfortable with yourself only?</t>
-  </si>
-  <si>
     <t>Do you remain calm under pressure?</t>
   </si>
   <si>
@@ -288,7 +261,46 @@
     <t xml:space="preserve">Do you bottle up your feelings </t>
   </si>
   <si>
-    <t>Do you wate your time</t>
+    <t> Do not like poetry?</t>
+  </si>
+  <si>
+    <t>Are you quite around strangers?</t>
+  </si>
+  <si>
+    <t>Do you take out some of your time for others?</t>
+  </si>
+  <si>
+    <t>Do you feel others emotions?</t>
+  </si>
+  <si>
+    <t>Are you hard to get to know?</t>
+  </si>
+  <si>
+    <t>Do you follow a regular schedule?</t>
+  </si>
+  <si>
+    <t>Do you pay attention to details?</t>
+  </si>
+  <si>
+    <t>Do you waste your time?</t>
+  </si>
+  <si>
+    <t>Do things in half-way manner/</t>
+  </si>
+  <si>
+    <t>Enjoy thinking about things.</t>
+  </si>
+  <si>
+    <t>Tend to vote for liberal political candidates.</t>
+  </si>
+  <si>
+    <t>Have difficulty understanding abstract ideas.</t>
+  </si>
+  <si>
+    <t>Have frequent mood swings.</t>
+  </si>
+  <si>
+    <t>Do you feel comfortable with yourself?</t>
   </si>
 </sst>
 </file>
@@ -694,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -718,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C1" s="9">
         <v>0.2</v>
@@ -750,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9">
         <v>0.2</v>
@@ -782,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9">
         <v>0.2</v>
@@ -814,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9">
         <v>0.2</v>
@@ -846,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -878,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -910,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -942,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -974,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="9">
         <v>0.2</v>
@@ -1006,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C10" s="9">
         <v>0.2</v>
@@ -1038,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9">
         <v>0.2</v>
@@ -1070,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="9">
         <v>0.2</v>
@@ -1102,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -1134,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -1166,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -1198,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
@@ -1230,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C17" s="9">
         <v>0.2</v>
@@ -1262,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C18" s="9">
         <v>0.2</v>
@@ -1294,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9">
         <v>0.2</v>
@@ -1326,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C20" s="9">
         <v>0.2</v>
@@ -1358,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -1422,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -1454,7 +1466,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -1486,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C25" s="9">
         <v>0.2</v>
@@ -1518,7 +1530,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C26" s="9">
         <v>0.2</v>
@@ -1582,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C28" s="9">
         <v>0.2</v>
@@ -1646,7 +1658,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -1710,7 +1722,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -1742,7 +1754,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C33" s="9">
         <v>0.2</v>
@@ -1774,7 +1786,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C34" s="9">
         <v>0.2</v>
@@ -1806,7 +1818,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C35" s="9">
         <v>0.2</v>
@@ -1870,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C37" s="9">
         <v>1</v>
@@ -1902,7 +1914,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
@@ -1934,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -1966,7 +1978,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
